--- a/resources/experiment 2/metrics/MAPE/incidence/Retinopatía de fondo (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Retinopatía de fondo (INC).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.515940290258436e+16</v>
+        <v>3.515940290258435e+16</v>
       </c>
       <c r="C2" t="n">
-        <v>3.515940290258435e+16</v>
+        <v>3.515940290258437e+16</v>
       </c>
       <c r="D2" t="n">
-        <v>3.515940290258435e+16</v>
+        <v>3.515940290258437e+16</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187608524410346.9</v>
+        <v>2013764253269.918</v>
       </c>
       <c r="C3" t="n">
-        <v>187608524410346.9</v>
+        <v>2030352097201.301</v>
       </c>
       <c r="D3" t="n">
-        <v>187608524410346.9</v>
+        <v>5139034093115512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391471364270777.9</v>
+        <v>1954600943247.987</v>
       </c>
       <c r="C4" t="n">
-        <v>391502769536401</v>
+        <v>1982247349800.292</v>
       </c>
       <c r="D4" t="n">
-        <v>391502769536401</v>
+        <v>426288264060819.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2305294621653206</v>
+        <v>151391064005937.4</v>
       </c>
       <c r="C5" t="n">
-        <v>2305294621653206</v>
+        <v>310977612319825.1</v>
       </c>
       <c r="D5" t="n">
-        <v>2305294621653206</v>
+        <v>1021080746431580</v>
       </c>
     </row>
   </sheetData>
